--- a/documentation/Gramatika-ver10.xlsx
+++ b/documentation/Gramatika-ver10.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3efae75f706e1dc0/_EVA/FIT/2021-LS/IVS/project02/addingToGithub/IFJ21/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="8_{EC59C82D-AAB0-4B9E-92AC-B49F9A2A0617}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6137793E-70AD-45E2-8165-3F23CB7A1A29}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="8_{EC59C82D-AAB0-4B9E-92AC-B49F9A2A0617}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FA79B9DA-2BED-4C4A-9BFA-DF9CEC5EF472}"/>
   <bookViews>
-    <workbookView xWindow="-13290" yWindow="10830" windowWidth="19200" windowHeight="10305" xr2:uid="{F7ABA761-DE8C-46A3-9A12-1AE5C5993C9B}"/>
+    <workbookView xWindow="-7740" yWindow="14085" windowWidth="12795" windowHeight="6870" xr2:uid="{F7ABA761-DE8C-46A3-9A12-1AE5C5993C9B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -280,7 +280,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -715,19 +715,19 @@
   </sheetPr>
   <dimension ref="A1:D73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I62" sqref="I62"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F62" sqref="F62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="5.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.90625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="2.6328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="45.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="50.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4">
       <c r="A1" s="1">
         <v>1</v>
       </c>
@@ -741,7 +741,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4">
       <c r="A2" s="11">
         <v>2</v>
       </c>
@@ -755,7 +755,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4">
       <c r="A3" s="1">
         <v>3</v>
       </c>
@@ -769,7 +769,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4">
       <c r="A4" s="1">
         <v>4</v>
       </c>
@@ -783,7 +783,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4">
       <c r="A5" s="1">
         <v>5</v>
       </c>
@@ -797,7 +797,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4">
       <c r="A6" s="1">
         <v>6</v>
       </c>
@@ -811,7 +811,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4">
       <c r="A7" s="1">
         <v>7</v>
       </c>
@@ -825,7 +825,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4">
       <c r="A8" s="1">
         <v>8</v>
       </c>
@@ -839,7 +839,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4">
       <c r="A9" s="1">
         <v>9</v>
       </c>
@@ -853,7 +853,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4">
       <c r="A10" s="1">
         <v>10</v>
       </c>
@@ -867,13 +867,13 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4">
       <c r="A11" s="1"/>
       <c r="B11" s="5"/>
       <c r="C11" s="3"/>
       <c r="D11" s="6"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4">
       <c r="A12" s="1">
         <v>12</v>
       </c>
@@ -887,7 +887,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4">
       <c r="A13" s="1">
         <v>13</v>
       </c>
@@ -901,7 +901,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4">
       <c r="A14" s="1">
         <v>14</v>
       </c>
@@ -915,7 +915,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4">
       <c r="A15" s="1">
         <v>15</v>
       </c>
@@ -929,7 +929,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4">
       <c r="A16" s="1">
         <v>16</v>
       </c>
@@ -937,7 +937,7 @@
       <c r="C16" s="3"/>
       <c r="D16" s="6"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4">
       <c r="A17" s="1">
         <v>17</v>
       </c>
@@ -951,7 +951,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4">
       <c r="A18" s="1">
         <v>18</v>
       </c>
@@ -965,7 +965,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4">
       <c r="A19" s="1">
         <v>19</v>
       </c>
@@ -979,7 +979,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4">
       <c r="A20" s="1">
         <v>20</v>
       </c>
@@ -993,7 +993,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4">
       <c r="A21" s="1">
         <v>21</v>
       </c>
@@ -1007,7 +1007,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4">
       <c r="A22" s="1">
         <v>22</v>
       </c>
@@ -1021,7 +1021,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4">
       <c r="A23" s="1">
         <v>23</v>
       </c>
@@ -1035,7 +1035,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4">
       <c r="A24" s="1">
         <v>24</v>
       </c>
@@ -1049,7 +1049,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4">
       <c r="A25" s="1">
         <v>25</v>
       </c>
@@ -1063,7 +1063,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4">
       <c r="A26" s="1">
         <v>26</v>
       </c>
@@ -1077,7 +1077,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4">
       <c r="A27" s="1">
         <v>27</v>
       </c>
@@ -1091,7 +1091,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4">
       <c r="A28" s="1">
         <v>28</v>
       </c>
@@ -1105,7 +1105,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4">
       <c r="A29" s="1">
         <v>29</v>
       </c>
@@ -1119,7 +1119,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4">
       <c r="A30" s="1">
         <v>30</v>
       </c>
@@ -1133,7 +1133,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4">
       <c r="A31" s="1">
         <v>31</v>
       </c>
@@ -1147,7 +1147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4">
       <c r="A32" s="1">
         <v>32</v>
       </c>
@@ -1161,7 +1161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4">
       <c r="A33" s="1">
         <v>33</v>
       </c>
@@ -1175,7 +1175,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4">
       <c r="A34" s="1">
         <v>34</v>
       </c>
@@ -1189,7 +1189,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4">
       <c r="A35" s="1">
         <v>35</v>
       </c>
@@ -1203,7 +1203,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4">
       <c r="A36" s="1">
         <v>36</v>
       </c>
@@ -1217,7 +1217,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4">
       <c r="A37" s="1">
         <v>37</v>
       </c>
@@ -1231,7 +1231,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4">
       <c r="A38" s="1">
         <v>37.1</v>
       </c>
@@ -1245,7 +1245,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4">
       <c r="A39" s="1">
         <v>37.200000000000003</v>
       </c>
@@ -1259,7 +1259,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4">
       <c r="A40" s="1">
         <v>37.299999999999997</v>
       </c>
@@ -1273,7 +1273,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4">
       <c r="A41" s="1">
         <v>37.4</v>
       </c>
@@ -1287,7 +1287,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4">
       <c r="A42" s="1">
         <v>37.5</v>
       </c>
@@ -1301,7 +1301,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4">
       <c r="A43" s="1">
         <v>38</v>
       </c>
@@ -1315,7 +1315,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4">
       <c r="A44" s="11">
         <v>39</v>
       </c>
@@ -1329,7 +1329,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4">
       <c r="A45" s="1">
         <v>40</v>
       </c>
@@ -1343,7 +1343,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4">
       <c r="A46" s="15">
         <v>41</v>
       </c>
@@ -1357,7 +1357,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4">
       <c r="A47" s="1">
         <v>42</v>
       </c>
@@ -1371,7 +1371,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4">
       <c r="A48" s="15">
         <v>43</v>
       </c>
@@ -1385,7 +1385,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4">
       <c r="A49" s="1">
         <v>44</v>
       </c>
@@ -1399,7 +1399,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4">
       <c r="A50" s="1">
         <v>45</v>
       </c>
@@ -1413,7 +1413,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4">
       <c r="A51" s="1">
         <v>46</v>
       </c>
@@ -1427,7 +1427,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4">
       <c r="A52" s="1">
         <v>47</v>
       </c>
@@ -1441,7 +1441,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4">
       <c r="A53" s="1">
         <v>48</v>
       </c>
@@ -1455,7 +1455,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4">
       <c r="A54" s="1">
         <v>49</v>
       </c>
@@ -1469,13 +1469,13 @@
         <v>44</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4">
       <c r="A55" s="11"/>
       <c r="B55" s="8"/>
       <c r="C55" s="9"/>
       <c r="D55" s="10"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4">
       <c r="A56" s="1">
         <v>51</v>
       </c>
@@ -1489,7 +1489,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4">
       <c r="A57" s="1">
         <v>52</v>
       </c>
@@ -1503,7 +1503,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:4">
       <c r="A58" s="15">
         <v>53</v>
       </c>
@@ -1517,7 +1517,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:4">
       <c r="A59" s="1">
         <v>54</v>
       </c>
@@ -1531,7 +1531,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:4">
       <c r="A60" s="1">
         <v>55</v>
       </c>
@@ -1545,7 +1545,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:4">
       <c r="A61" s="11">
         <v>56</v>
       </c>
@@ -1559,7 +1559,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:4">
       <c r="A62" s="1">
         <v>57</v>
       </c>
@@ -1573,21 +1573,21 @@
         <v>52</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A63" s="1">
+    <row r="63" spans="1:4">
+      <c r="A63" s="15">
         <v>58</v>
       </c>
-      <c r="B63" s="5" t="s">
+      <c r="B63" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="C63" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D63" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C63" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D63" s="19" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1">
         <v>59</v>
       </c>
@@ -1601,7 +1601,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:4">
       <c r="A65" s="1">
         <v>60</v>
       </c>
@@ -1615,13 +1615,13 @@
         <v>70</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:4">
       <c r="A66" s="1"/>
       <c r="B66" s="5"/>
       <c r="C66" s="3"/>
       <c r="D66" s="6"/>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:4">
       <c r="A67" s="1">
         <v>62</v>
       </c>
@@ -1635,7 +1635,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:4">
       <c r="A68" s="1">
         <v>63</v>
       </c>
@@ -1649,7 +1649,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:4">
       <c r="A69" s="1">
         <v>64</v>
       </c>
@@ -1663,7 +1663,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:4">
       <c r="A70" s="1">
         <v>65</v>
       </c>
@@ -1677,7 +1677,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:4">
       <c r="A71" s="1">
         <v>66</v>
       </c>
@@ -1691,7 +1691,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:4">
       <c r="A72" s="1">
         <v>67</v>
       </c>
@@ -1705,7 +1705,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:4">
       <c r="A73" s="1">
         <v>68</v>
       </c>
